--- a/assets/data/Decarbonation.xlsx
+++ b/assets/data/Decarbonation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Enseignement/Cours/Mes_Cours/2021_11_ES3033/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC8B82-365F-954E-A69F-7C882CC40E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8131D-B176-B842-AD72-D2C390FA4E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="500" windowWidth="40340" windowHeight="24140" xr2:uid="{F78FCDAA-C319-E14D-839D-EB98F97F9351}"/>
+    <workbookView xWindow="17380" yWindow="4840" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{F78FCDAA-C319-E14D-839D-EB98F97F9351}"/>
   </bookViews>
   <sheets>
     <sheet name="Chauffage-simple" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>Present</t>
   </si>
@@ -437,12 +437,42 @@
   <si>
     <t>Réduction :</t>
   </si>
+  <si>
+    <t>Emissions batteries [gCO2/km]</t>
+  </si>
+  <si>
+    <t>Part fixe [kgC02/kWhbatt]</t>
+  </si>
+  <si>
+    <t>Part liée à la conso élec [kgC02/kWhbatt]</t>
+  </si>
+  <si>
+    <t>taille batterie</t>
+  </si>
+  <si>
+    <t>durée de vie [km]</t>
+  </si>
+  <si>
+    <t>http://www.energimyndigheten.se/globalassets/forskning--innovation/transporter/c243-the-life-cycle-energy-consumption-and-co2-emissions-from-lithium-ion-batteries-.pdf</t>
+  </si>
+  <si>
+    <t>Conso d'énergie pour la fabrication de la batterie lors de la phase d'assemblage [MJ/kWh]</t>
+  </si>
+  <si>
+    <t>kWhbatt/kWhelec</t>
+  </si>
+  <si>
+    <t>Facteur émission batterie [gCO2/km]</t>
+  </si>
+  <si>
+    <t>Emission totale batteries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,8 +519,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +594,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -891,10 +954,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -924,10 +988,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -967,56 +1027,95 @@
     <xf numFmtId="2" fontId="3" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,8 +1124,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1341,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98972B4-8707-2443-9EC8-B965AEC63B14}">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
@@ -1408,7 +1509,7 @@
       <c r="R6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="37"/>
+      <c r="S6" s="35"/>
     </row>
     <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K7" s="21" t="s">
@@ -1419,7 +1520,7 @@
         <f>M6*(1-0.07*Q6)</f>
         <v>1</v>
       </c>
-      <c r="S7" s="37"/>
+      <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1464,7 +1565,7 @@
       <c r="R8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="37"/>
+      <c r="S8" s="35"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
@@ -1517,7 +1618,7 @@
         <f t="shared" ref="R9:R12" si="1">SUM(L9:Q9)</f>
         <v>305</v>
       </c>
-      <c r="S9" s="37"/>
+      <c r="S9" s="35"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -1576,7 +1677,7 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="S10" s="37"/>
+      <c r="S10" s="35"/>
     </row>
     <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -1632,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="10"/>
-      <c r="S11" s="37"/>
+      <c r="S11" s="35"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K12" s="19" t="s">
@@ -1666,7 +1767,7 @@
         <f t="shared" si="1"/>
         <v>298.33333333333337</v>
       </c>
-      <c r="S12" s="37"/>
+      <c r="S12" s="35"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K13" s="19" t="s">
@@ -1694,7 +1795,7 @@
         <f>R14/R9*1000</f>
         <v>163.70491803278688</v>
       </c>
-      <c r="S13" s="37"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K14" s="20" t="s">
@@ -1728,7 +1829,7 @@
         <f>SUM(L14:Q14)</f>
         <v>49.93</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1736,12 +1837,12 @@
       <c r="K15" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S16" s="37"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K17" s="27" t="s">
@@ -1753,7 +1854,7 @@
       <c r="Q17" t="s">
         <v>85</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1776,7 +1877,7 @@
       <c r="R18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K19" s="21" t="s">
@@ -1787,7 +1888,7 @@
         <f>M18*(1-0.07*Q18)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="37"/>
+      <c r="S19" s="35"/>
     </row>
     <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L20" s="8" t="s">
@@ -1811,7 +1912,7 @@
       <c r="R20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="37"/>
+      <c r="S20" s="35"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K21" s="18" t="s">
@@ -1839,7 +1940,7 @@
         <f t="shared" ref="R21:R22" si="6">SUM(L21:Q21)</f>
         <v>305</v>
       </c>
-      <c r="S21" s="37"/>
+      <c r="S21" s="35"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I22" s="9"/>
@@ -1874,7 +1975,7 @@
         <f t="shared" si="6"/>
         <v>305</v>
       </c>
-      <c r="S22" s="37"/>
+      <c r="S22" s="35"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I23" s="9"/>
@@ -1900,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="37"/>
+      <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I24" s="9"/>
@@ -1935,7 +2036,7 @@
         <f t="shared" ref="R24" si="13">SUM(L24:Q24)</f>
         <v>298.33333333333337</v>
       </c>
-      <c r="S24" s="37"/>
+      <c r="S24" s="35"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I25" s="9"/>
@@ -1964,7 +2065,7 @@
         <f>R26/R21*1000</f>
         <v>163.70491803278688</v>
       </c>
-      <c r="S25" s="37"/>
+      <c r="S25" s="35"/>
     </row>
     <row r="26" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I26" s="9"/>
@@ -1999,7 +2100,7 @@
         <f>SUM(L26:Q26)</f>
         <v>49.93</v>
       </c>
-      <c r="S26" s="37"/>
+      <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
@@ -2014,7 +2115,7 @@
       <c r="K27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="35" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2036,7 +2137,7 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
-      <c r="S28" s="37"/>
+      <c r="S28" s="35"/>
     </row>
     <row r="29" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
@@ -2056,7 +2157,7 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
-      <c r="S29" s="37"/>
+      <c r="S29" s="35"/>
     </row>
     <row r="30" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
@@ -2076,11 +2177,11 @@
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
-      <c r="Q30" s="37" t="s">
+      <c r="Q30" s="35" t="s">
         <v>85</v>
       </c>
       <c r="R30" s="25"/>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2103,7 +2204,7 @@
       <c r="R31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="37"/>
+      <c r="S31" s="35"/>
     </row>
     <row r="32" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K32" s="21" t="s">
@@ -2114,7 +2215,7 @@
         <f>M31*(1-0.07*Q31)</f>
         <v>1</v>
       </c>
-      <c r="S32" s="37"/>
+      <c r="S32" s="35"/>
     </row>
     <row r="33" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L33" s="8" t="s">
@@ -2138,7 +2239,7 @@
       <c r="R33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S33" s="37"/>
+      <c r="S33" s="35"/>
     </row>
     <row r="34" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K34" s="18" t="s">
@@ -2166,7 +2267,7 @@
         <f t="shared" ref="R34:R35" si="19">SUM(L34:Q34)</f>
         <v>305</v>
       </c>
-      <c r="S34" s="37"/>
+      <c r="S34" s="35"/>
     </row>
     <row r="35" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K35" s="19" t="s">
@@ -2200,7 +2301,7 @@
         <f t="shared" si="19"/>
         <v>305</v>
       </c>
-      <c r="S35" s="37"/>
+      <c r="S35" s="35"/>
     </row>
     <row r="36" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K36" s="19" t="s">
@@ -2225,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="10"/>
-      <c r="S36" s="37"/>
+      <c r="S36" s="35"/>
     </row>
     <row r="37" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K37" s="19" t="s">
@@ -2259,7 +2360,7 @@
         <f t="shared" ref="R37" si="26">SUM(L37:Q37)</f>
         <v>298.33333333333337</v>
       </c>
-      <c r="S37" s="37"/>
+      <c r="S37" s="35"/>
     </row>
     <row r="38" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K38" s="19" t="s">
@@ -2287,7 +2388,7 @@
         <f>R39/R34*1000</f>
         <v>163.70491803278688</v>
       </c>
-      <c r="S38" s="37"/>
+      <c r="S38" s="35"/>
     </row>
     <row r="39" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K39" s="20" t="s">
@@ -2321,7 +2422,7 @@
         <f>SUM(L39:Q39)</f>
         <v>49.93</v>
       </c>
-      <c r="S39" s="37" t="s">
+      <c r="S39" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2329,24 +2430,24 @@
       <c r="K40" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="S40" s="37" t="s">
+      <c r="S40" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="S41" s="37"/>
+      <c r="S41" s="35"/>
     </row>
     <row r="42" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="S42" s="37"/>
+      <c r="S42" s="35"/>
     </row>
     <row r="43" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="37" t="s">
+      <c r="Q43" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="S43" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2369,7 +2470,7 @@
       <c r="R44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="37"/>
+      <c r="S44" s="35"/>
     </row>
     <row r="45" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K45" s="21" t="s">
@@ -2380,7 +2481,7 @@
         <f>M44*(1-0.07*Q44)</f>
         <v>1</v>
       </c>
-      <c r="S45" s="37"/>
+      <c r="S45" s="35"/>
     </row>
     <row r="46" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L46" s="8" t="s">
@@ -2404,7 +2505,7 @@
       <c r="R46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S46" s="37"/>
+      <c r="S46" s="35"/>
     </row>
     <row r="47" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K47" s="18" t="s">
@@ -2432,7 +2533,7 @@
         <f t="shared" ref="R47:R48" si="32">SUM(L47:Q47)</f>
         <v>305</v>
       </c>
-      <c r="S47" s="37"/>
+      <c r="S47" s="35"/>
     </row>
     <row r="48" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K48" s="19" t="s">
@@ -2466,7 +2567,7 @@
         <f t="shared" si="32"/>
         <v>305</v>
       </c>
-      <c r="S48" s="37"/>
+      <c r="S48" s="35"/>
     </row>
     <row r="49" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K49" s="19" t="s">
@@ -2491,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="R49" s="10"/>
-      <c r="S49" s="37"/>
+      <c r="S49" s="35"/>
     </row>
     <row r="50" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K50" s="19" t="s">
@@ -2525,7 +2626,7 @@
         <f t="shared" ref="R50" si="39">SUM(L50:Q50)</f>
         <v>298.33333333333337</v>
       </c>
-      <c r="S50" s="37"/>
+      <c r="S50" s="35"/>
     </row>
     <row r="51" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K51" s="19" t="s">
@@ -2553,7 +2654,7 @@
         <f>R52/R47*1000</f>
         <v>163.70491803278688</v>
       </c>
-      <c r="S51" s="37"/>
+      <c r="S51" s="35"/>
     </row>
     <row r="52" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K52" s="20" t="s">
@@ -2587,7 +2688,7 @@
         <f>SUM(L52:Q52)</f>
         <v>49.93</v>
       </c>
-      <c r="S52" s="37" t="s">
+      <c r="S52" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2595,21 +2696,21 @@
       <c r="K53" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="S53" s="37" t="s">
+      <c r="S53" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="S54" s="37"/>
+      <c r="S54" s="35"/>
     </row>
     <row r="55" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K55" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="37" t="s">
+      <c r="Q55" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="S55" s="37" t="s">
+      <c r="S55" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2632,7 +2733,7 @@
       <c r="R56" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="37"/>
+      <c r="S56" s="35"/>
     </row>
     <row r="57" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K57" s="21" t="s">
@@ -2643,7 +2744,7 @@
         <f>M56*(1-0.07*Q56)</f>
         <v>1</v>
       </c>
-      <c r="S57" s="37"/>
+      <c r="S57" s="35"/>
     </row>
     <row r="58" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L58" s="8" t="s">
@@ -2667,7 +2768,7 @@
       <c r="R58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S58" s="37"/>
+      <c r="S58" s="35"/>
     </row>
     <row r="59" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K59" s="18" t="s">
@@ -2695,7 +2796,7 @@
         <f t="shared" ref="R59:R60" si="45">SUM(L59:Q59)</f>
         <v>305</v>
       </c>
-      <c r="S59" s="37"/>
+      <c r="S59" s="35"/>
     </row>
     <row r="60" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K60" s="19" t="s">
@@ -2729,7 +2830,7 @@
         <f t="shared" si="45"/>
         <v>305</v>
       </c>
-      <c r="S60" s="37"/>
+      <c r="S60" s="35"/>
     </row>
     <row r="61" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K61" s="19" t="s">
@@ -2754,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="R61" s="10"/>
-      <c r="S61" s="37"/>
+      <c r="S61" s="35"/>
     </row>
     <row r="62" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K62" s="19" t="s">
@@ -2788,7 +2889,7 @@
         <f t="shared" ref="R62" si="52">SUM(L62:Q62)</f>
         <v>298.33333333333337</v>
       </c>
-      <c r="S62" s="37"/>
+      <c r="S62" s="35"/>
     </row>
     <row r="63" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K63" s="19" t="s">
@@ -2816,7 +2917,7 @@
         <f>R64/R59*1000</f>
         <v>163.70491803278688</v>
       </c>
-      <c r="S63" s="37"/>
+      <c r="S63" s="35"/>
     </row>
     <row r="64" spans="11:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K64" s="20" t="s">
@@ -2850,7 +2951,7 @@
         <f>SUM(L64:Q64)</f>
         <v>49.93</v>
       </c>
-      <c r="S64" s="37" t="s">
+      <c r="S64" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2858,21 +2959,21 @@
       <c r="K65" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="37" t="s">
+      <c r="S65" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="S66" s="37"/>
+      <c r="S66" s="35"/>
     </row>
     <row r="67" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K67" t="s">
         <v>26</v>
       </c>
-      <c r="Q67" s="37" t="s">
+      <c r="Q67" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="S67" s="37" t="s">
+      <c r="S67" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3263,741 +3364,1395 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DD6D89-1C93-0740-A6CB-16DBB4836354}">
-  <dimension ref="B1:P28"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="A1:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="1" max="24" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H1">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H2">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="K2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="H3">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="K3" s="44">
+        <f>(M3+O3)*S3/U3*1000</f>
+        <v>25</v>
+      </c>
+      <c r="M3" s="44">
         <v>70</v>
       </c>
-      <c r="H4">
+      <c r="O3" s="44">
+        <f>K6*H5/1000</f>
+        <v>10</v>
+      </c>
+      <c r="S3" s="44">
+        <v>50</v>
+      </c>
+      <c r="U3" s="44">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="K4" s="87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H5">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="K5" s="44">
+        <v>600</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="H6">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="K6" s="44">
+        <f>K5/3.6</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f>K3</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="47">
         <v>2019</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="25">
+      <c r="J8" s="47">
         <v>2019</v>
       </c>
-      <c r="P8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E10">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
         <v>0</v>
       </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" t="s">
+      <c r="L10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="2:16" ht="37" x14ac:dyDescent="0.2">
-      <c r="B11" s="53" t="s">
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45">
+        <v>0</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="2:21" ht="37" x14ac:dyDescent="0.2">
+      <c r="B11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53" t="s">
+      <c r="H11" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="M11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="N11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="56" t="s">
+      <c r="O11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="P11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="57" t="s">
+      <c r="Q11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="R11" s="53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="45">
         <v>170</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="45">
         <f>316+143+55+6</f>
         <v>520</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="45">
         <f>F12*D12</f>
         <v>676</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="45">
         <v>1.3</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="55">
         <f>C12*E12/(1000*F12)</f>
         <v>88.4</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="58" t="s">
+      <c r="H12" s="55">
+        <v>0</v>
+      </c>
+      <c r="L12" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="9">
+      <c r="M12" s="45">
         <v>170</v>
       </c>
-      <c r="L12" s="9">
+      <c r="N12" s="45">
+        <f>316+143+55+6</f>
+        <v>520</v>
+      </c>
+      <c r="O12" s="45">
+        <f>P12*N12</f>
+        <v>676</v>
+      </c>
+      <c r="P12" s="45">
+        <v>1.3</v>
+      </c>
+      <c r="Q12" s="55">
+        <f>M12*O12/(1000*P12)</f>
+        <v>88.4</v>
+      </c>
+      <c r="R12" s="55">
         <v>0</v>
       </c>
-      <c r="M12" s="9">
-        <f>N12*L12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="O12" s="10">
-        <f>K12*M12/(1000*N12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="58" t="s">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="45">
         <f>120*(1-E$10)+E$10*$H$6*$H$4*$H$1</f>
         <v>120</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="45">
         <v>1.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="45">
         <f t="shared" ref="E13:E20" si="0">F13*D13</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="45">
         <v>1.3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="55">
         <f t="shared" ref="G13:G20" si="1">C13*E13/(1000*F13)</f>
         <v>0.18000000000000002</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="58" t="s">
+      <c r="H13" s="55">
+        <v>0</v>
+      </c>
+      <c r="L13" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="9">
-        <f>120*(1-M$10)+M$10*$H$6*$H$4*$H$1</f>
-        <v>22.5</v>
-      </c>
-      <c r="L13" s="9">
-        <v>60</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" ref="M13:M20" si="2">N13*L13</f>
-        <v>78</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="M13" s="45">
+        <f>120*(1-O$10)+O$10*$H$6*$H$4*$H$1</f>
+        <v>120</v>
+      </c>
+      <c r="N13" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" ref="O13:O20" si="2">P13*N13</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="P13" s="45">
         <v>1.3</v>
       </c>
-      <c r="O13" s="10">
-        <f t="shared" ref="O13:O20" si="3">K13*M13/(1000*N13)</f>
-        <v>1.35</v>
-      </c>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="58" t="s">
+      <c r="Q13" s="55">
+        <f t="shared" ref="Q13:Q20" si="3">M13*O13/(1000*P13)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="R13" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="56">
         <f>$H$5*$H$4</f>
         <v>9</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="57">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="45">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="45">
         <v>1.3</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="55">
         <f t="shared" si="1"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="J14" s="58" t="s">
+      <c r="H14" s="55">
+        <f>D14*$H$7/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L14" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="46">
+      <c r="M14" s="56">
         <f>$H$5*$H$4</f>
         <v>9</v>
       </c>
-      <c r="L14" s="59">
-        <v>460</v>
-      </c>
-      <c r="M14" s="9">
+      <c r="N14" s="57">
+        <v>1</v>
+      </c>
+      <c r="O14" s="45">
         <f t="shared" si="2"/>
-        <v>598</v>
-      </c>
-      <c r="N14" s="9">
         <v>1.3</v>
       </c>
-      <c r="O14" s="10">
+      <c r="P14" s="45">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" s="55">
         <f t="shared" si="3"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="2:16" ht="24" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R14" s="55">
+        <f>N14*$H$7/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="24" x14ac:dyDescent="0.2">
+      <c r="B15" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="45">
         <v>1100</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="57">
         <v>2.9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="45">
         <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="45">
         <v>15</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="55">
         <f t="shared" si="1"/>
         <v>3.19</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="J15" s="58" t="s">
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="L15" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="9">
+      <c r="M15" s="45">
         <v>1100</v>
       </c>
-      <c r="L15" s="59">
+      <c r="N15" s="57">
+        <v>2.9</v>
+      </c>
+      <c r="O15" s="45">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="P15" s="45">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="55">
+        <f t="shared" si="3"/>
+        <v>3.19</v>
+      </c>
+      <c r="R15" s="55">
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="45">
+        <f>1000*(1-E$10)+E$10*$H$6*$H$4*$H$3*$H$1</f>
+        <v>1000</v>
+      </c>
+      <c r="D16" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F16" s="45">
+        <v>15</v>
+      </c>
+      <c r="G16" s="55">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="H16" s="55">
+        <v>0</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="45">
+        <f>1000*(1-O$10)+O$10*$H$6*$H$4*$H$3*$H$1</f>
+        <v>1000</v>
+      </c>
+      <c r="N16" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="O16" s="45">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="P16" s="45">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="55">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="R16" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="B17" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="45">
+        <v>0</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>15</v>
+      </c>
+      <c r="G17" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="45">
+        <v>0</v>
+      </c>
+      <c r="N17" s="57">
+        <v>0</v>
+      </c>
+      <c r="O17" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="P17" s="45">
         <v>15</v>
       </c>
-      <c r="O15" s="10">
+      <c r="Q17" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="9">
-        <f>1000*(1-E$10)+E$10*$H$6*$H$4*$H$3*$H$1</f>
-        <v>1000</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="F16" s="9">
-        <v>15</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999995E-2</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="J16" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="9">
-        <f>1000*(1-M$10)+M$10*$H$6*$H$4*$H$3*$H$1</f>
-        <v>180</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N16" s="9">
-        <v>15</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B17" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="R17" s="55">
         <v>0</v>
       </c>
-      <c r="D17" s="59">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="45">
+        <f>$H$5*$H$4*$H$3*$H$1</f>
+        <v>216</v>
+      </c>
+      <c r="D18" s="57">
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="45">
         <v>15</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="J17" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="H18" s="55">
         <v>0</v>
       </c>
-      <c r="L17" s="59">
-        <v>2</v>
-      </c>
-      <c r="M17" s="9">
+      <c r="L18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="45">
+        <f>$H$5*$H$4*$H$3*$H$1</f>
+        <v>216</v>
+      </c>
+      <c r="N18" s="57">
+        <v>0</v>
+      </c>
+      <c r="O18" s="45">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="45">
         <v>15</v>
       </c>
-      <c r="O17" s="10">
+      <c r="Q18" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="9">
-        <f>$H$5*$H$4*$H$3*$H$1</f>
-        <v>216</v>
-      </c>
-      <c r="D18" s="59">
+      <c r="R18" s="55">
         <v>0</v>
       </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>15</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="J18" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="9">
-        <f>$H$5*$H$4*$H$3*$H$1</f>
-        <v>216</v>
-      </c>
-      <c r="L18" s="59">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>15</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B19" s="58" t="s">
+    </row>
+    <row r="19" spans="2:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="B19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="45">
         <v>100</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="45">
         <v>13.5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="45">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="45">
         <v>1</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="55">
         <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="L19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="9">
+      <c r="M19" s="45">
         <v>100</v>
       </c>
-      <c r="L19" s="9">
+      <c r="N19" s="45">
+        <v>13.5</v>
+      </c>
+      <c r="O19" s="45">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="P19" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="55">
+        <f t="shared" si="3"/>
+        <v>1.35</v>
+      </c>
+      <c r="R19" s="55">
         <v>0</v>
       </c>
-      <c r="M19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+    </row>
+    <row r="20" spans="2:18" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="59">
         <f>$H$4*$H$2*$H$5</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="59">
         <v>0.1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="59">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="59">
         <v>1</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="60">
         <f t="shared" si="1"/>
         <v>5.399999999999999E-4</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="H20" s="55">
+        <f>D20*H7/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L20" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="12">
+      <c r="M20" s="59">
         <f>$H$4*$H$2*$H$5</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="L20" s="12">
-        <v>13</v>
-      </c>
-      <c r="M20" s="12">
+      <c r="N20" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="O20" s="59">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="N20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="59">
         <v>1</v>
       </c>
-      <c r="O20" s="13">
+      <c r="Q20" s="60">
         <f t="shared" si="3"/>
-        <v>7.0199999999999985E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="D21" s="50" t="s">
+        <v>5.399999999999999E-4</v>
+      </c>
+      <c r="R20" s="55">
+        <f>N20*$H$7/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="62">
         <f>SUM(E12:E20)</f>
         <v>736.80000000000007</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="63">
         <f>SUM(G12:G20)</f>
         <v>93.159540000000007</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="H21" s="63">
+        <f>SUM(H12:H20)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="51">
-        <f>SUM(M12:M20)</f>
-        <v>734</v>
-      </c>
-      <c r="N21" s="50" t="s">
+      <c r="O21" s="62">
+        <f>SUM(O12:O20)</f>
+        <v>736.80000000000007</v>
+      </c>
+      <c r="P21" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="52">
-        <f>SUM(O12:O20)</f>
-        <v>5.7401999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:15" ht="37" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
+      <c r="Q21" s="63">
+        <f>SUM(Q12:Q20)</f>
+        <v>93.159540000000007</v>
+      </c>
+      <c r="R21" s="63">
+        <f>SUM(R12:R20)</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+    </row>
+    <row r="24" spans="2:18" ht="37" x14ac:dyDescent="0.2">
+      <c r="B24" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="H24" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="M24" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="55" t="s">
+      <c r="N24" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="56" t="s">
+      <c r="O24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="62" t="s">
+      <c r="P24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="57" t="s">
+      <c r="Q24" s="53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B25" s="58" t="s">
+      <c r="R24" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="B25" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="45">
         <v>5</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66">
         <v>112</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10">
+      <c r="F25" s="45"/>
+      <c r="G25" s="55">
         <f>C25*E25/1000</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="H25" s="55">
+        <f>D25*F25/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="9">
+      <c r="M25" s="45">
         <v>5</v>
       </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63">
+      <c r="N25" s="66"/>
+      <c r="O25" s="66">
         <v>112</v>
       </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="10">
-        <f>K25*M25/1000</f>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="55">
+        <f>M25*O25/1000</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="B26" s="58" t="s">
+      <c r="R25" s="55">
+        <f>N25*P25/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="B26" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="67">
         <v>134</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36">
+      <c r="D26" s="67"/>
+      <c r="E26" s="67">
         <v>15.6</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10">
-        <f t="shared" ref="G26:G27" si="4">C26*E26/1000</f>
+      <c r="F26" s="45"/>
+      <c r="G26" s="55">
+        <f t="shared" ref="G26:H27" si="4">C26*E26/1000</f>
         <v>2.0904000000000003</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="H26" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="36">
+      <c r="M26" s="67">
         <v>134</v>
       </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36">
+      <c r="N26" s="67"/>
+      <c r="O26" s="67">
         <v>15.6</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10">
-        <f t="shared" ref="O26:O27" si="5">K26*M26/1000</f>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="55">
+        <f t="shared" ref="Q26:R27" si="5">M26*O26/1000</f>
         <v>2.0904000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60" t="s">
+      <c r="R26" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="68">
         <v>80</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64">
+      <c r="D27" s="68"/>
+      <c r="E27" s="68">
         <f>0.004*8400</f>
         <v>33.6</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13">
+      <c r="F27" s="59"/>
+      <c r="G27" s="60">
         <f t="shared" si="4"/>
         <v>2.6880000000000002</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="H27" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="64">
+      <c r="M27" s="68">
         <v>80</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64">
+      <c r="N27" s="68"/>
+      <c r="O27" s="68">
         <f>0.004*8400</f>
         <v>33.6</v>
       </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="13">
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60">
         <f t="shared" si="5"/>
         <v>2.6880000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="47"/>
-      <c r="D28" s="50" t="s">
+      <c r="R27" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="69"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="62">
         <f>E21+SUM(E25:E27)</f>
         <v>898</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="62">
         <f>G21+SUM(G25:G27)</f>
         <v>98.49794</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="L28" s="50" t="s">
+      <c r="H28" s="62">
+        <f>H21+SUM(H25:H27)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="51">
-        <f>M21+SUM(M25:M27)</f>
-        <v>895.2</v>
-      </c>
-      <c r="N28" s="50" t="s">
+      <c r="O28" s="62">
+        <f>O21+SUM(O25:O27)</f>
+        <v>898</v>
+      </c>
+      <c r="P28" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="O28" s="51">
-        <f>O21+SUM(O25:O27)</f>
-        <v>11.0786</v>
-      </c>
+      <c r="Q28" s="62">
+        <f>Q21+SUM(Q25:Q27)</f>
+        <v>98.49794</v>
+      </c>
+      <c r="R28" s="62">
+        <f>R21+SUM(R25:R27)</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H29" s="66">
+        <f>G28+H28</f>
+        <v>98.525440000000003</v>
+      </c>
+      <c r="R29" s="66">
+        <f>Q28+R28</f>
+        <v>98.525440000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="70"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="72"/>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L33" s="73"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L34" s="77"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L35" s="77"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L36" s="77"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L37" s="77"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L38" s="77"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+    </row>
+    <row r="39" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L39" s="77"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+    </row>
+    <row r="40" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L40" s="77"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+    </row>
+    <row r="41" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L41" s="77"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+    </row>
+    <row r="42" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L42" s="77"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+    </row>
+    <row r="43" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+    </row>
+    <row r="44" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="26"/>
+    </row>
+    <row r="45" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+    </row>
+    <row r="46" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L46" s="73"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+    </row>
+    <row r="47" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L47" s="77"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+    </row>
+    <row r="48" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L48" s="77"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+    </row>
+    <row r="49" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L49" s="77"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+    </row>
+    <row r="50" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L50" s="77"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+    </row>
+    <row r="51" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="81"/>
+    </row>
+    <row r="52" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="26"/>
+    </row>
+    <row r="53" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="70"/>
+    </row>
+    <row r="54" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="72"/>
+    </row>
+    <row r="55" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L55" s="73"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="76"/>
+    </row>
+    <row r="56" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L56" s="77"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+    </row>
+    <row r="57" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L57" s="77"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+    </row>
+    <row r="58" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L58" s="77"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+    </row>
+    <row r="59" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L59" s="77"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+    </row>
+    <row r="60" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L60" s="77"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+    </row>
+    <row r="61" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L61" s="77"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+    </row>
+    <row r="62" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L62" s="77"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+    </row>
+    <row r="63" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L63" s="77"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+    </row>
+    <row r="64" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L64" s="77"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+    </row>
+    <row r="65" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+    </row>
+    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="26"/>
+    </row>
+    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+    </row>
+    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L68" s="73"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="76"/>
+      <c r="P68" s="76"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="76"/>
+    </row>
+    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L69" s="77"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+    </row>
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L70" s="77"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+    </row>
+    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L71" s="77"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+    </row>
+    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L72" s="77"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="80"/>
+      <c r="R72" s="80"/>
+    </row>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="81"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L31:O31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{8C326D8E-F068-984E-A72C-6A5C320E0517}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4013,568 +4768,568 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:16" ht="37" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="84" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>165.7424412138364</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <v>316.26114815516769</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <f t="shared" ref="E5:E19" si="0">D5*F5</f>
         <v>379.5133777862012</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <v>1.2</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <f t="shared" ref="G5:G19" si="1">C5*E5/(F5*1000)</f>
         <v>52.417894756328288</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>155.80063510128798</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>143.02161906059894</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <f t="shared" si="0"/>
         <v>171.62594287271872</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <v>1.2</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <f t="shared" si="1"/>
         <v>22.282859082855786</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>110.15297857651096</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>1.438258794821085</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="34">
         <f t="shared" si="0"/>
         <v>1.7259105537853019</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>1.2</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <f t="shared" si="1"/>
         <v>0.15842849021340544</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>139.32332715645703</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>7.6668475639745687E-2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <f t="shared" si="0"/>
         <v>9.2002170767694819E-2</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>1.2</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <f t="shared" si="1"/>
         <v>1.0681707114143145E-2</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="85"/>
       <c r="P8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>0</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>1.0241650189542271</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="34">
         <f t="shared" si="0"/>
         <v>1.2289980227450725</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <v>1.2</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>219.20672641734643</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <f>91.0319547781913*0.6</f>
         <v>54.619172866914781</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <f t="shared" si="0"/>
         <v>98.314511160446614</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <v>1.8</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <f t="shared" si="1"/>
         <v>11.972890083779539</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="85"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>189.07207216638702</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <f>10.4229775052414*0.6</f>
         <v>6.2537865031448403</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>11.256815705660713</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>1.8</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <f t="shared" si="1"/>
         <v>1.1824163730357784</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <f>0.435578638449838*0.6</f>
         <v>0.26134718306990279</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="34">
         <f t="shared" si="0"/>
         <v>0.47042492952582504</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="34">
         <v>1.8</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="85"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <v>1112.9766344540224</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <f>28.97/10</f>
         <v>2.8969999999999998</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <f t="shared" si="0"/>
         <v>41.340189999999993</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="34">
         <v>14.27</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <f t="shared" si="1"/>
         <v>3.224293310013302</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="2:16" ht="24" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>431.32970528073014</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <f>0/10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="34">
         <v>14.27</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <v>1140.5937522829518</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <f>0.327630360261145/10</f>
         <v>3.2763036026114502E-2</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="34">
         <f t="shared" si="0"/>
         <v>0.46752852409265394</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>14.27</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <f t="shared" si="1"/>
         <v>3.7369314197207466E-2</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="2:16" ht="24" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <v>0</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <f>0.0233699210162792/10</f>
         <v>2.33699210162792E-3</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="34">
         <f t="shared" si="0"/>
         <v>3.3348877290230415E-2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="34">
         <v>14.27</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="2:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>105.50510244538106</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="34">
         <v>12.96973188803741</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <f t="shared" si="0"/>
         <v>13.099429206917785</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="34">
         <v>1.01</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <f t="shared" si="1"/>
         <v>1.3683728915365123</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>105.50510244538106</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>0.92901191741603328</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <f t="shared" si="0"/>
         <v>0.93830203659019362</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="34">
         <v>1.01</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <f t="shared" si="1"/>
         <v>9.8015497519958472E-2</v>
       </c>
-      <c r="H18" s="66"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="2:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>0</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0.10112500577722081</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="36">
         <f t="shared" si="0"/>
         <v>0.10213625583499301</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <v>1.01</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="C20" s="39"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="30">
         <f>SUM(E5:E19)</f>
         <v>720.20891810257717</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="38">
         <f>SUM(G5:G19)</f>
         <v>92.753221506593931</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="2:8" ht="37" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="42"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="34">
         <v>1.9</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34">
         <v>61.89</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="36">
+      <c r="F23" s="43"/>
+      <c r="G23" s="34">
         <f t="shared" ref="G23:G27" si="2">C23*E23/1000</f>
         <v>0.11759099999999999</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="86" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="34">
         <v>24.81</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34">
         <v>15.221</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="36">
+      <c r="F24" s="43"/>
+      <c r="G24" s="34">
         <f t="shared" si="2"/>
         <v>0.37763300999999994</v>
       </c>
-      <c r="H24" s="66"/>
+      <c r="H24" s="85"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="34">
         <v>5.29</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34">
         <v>5.46</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="36">
+      <c r="F25" s="43"/>
+      <c r="G25" s="34">
         <f t="shared" si="2"/>
         <v>2.88834E-2</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>4.5</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34">
         <v>19.5</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="36">
+      <c r="F26" s="43"/>
+      <c r="G26" s="34">
         <f t="shared" si="2"/>
         <v>8.7749999999999995E-2</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="34">
         <v>2.5</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34">
         <v>10.6</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="36">
+      <c r="F27" s="43"/>
+      <c r="G27" s="34">
         <f t="shared" si="2"/>
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="85"/>
     </row>
     <row r="28" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <f t="shared" ref="C28:C29" si="3">G28/E28*10^3</f>
         <v>134.61538461538464</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34">
         <v>15.6</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="36">
+      <c r="F28" s="43"/>
+      <c r="G28" s="34">
         <v>2.1</v>
       </c>
-      <c r="H28" s="66"/>
+      <c r="H28" s="85"/>
     </row>
     <row r="29" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <f t="shared" si="3"/>
         <v>80.357142857142861</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34">
         <f>0.004*8400</f>
         <v>33.6</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="36">
+      <c r="F29" s="43"/>
+      <c r="G29" s="34">
         <v>2.7</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="85"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="36"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="30">
         <f>SUM(E5:E19)+SUM(E23:E29)</f>
         <v>882.07991810257715</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <f>SUM(G5:G19)+SUM(G23:G29)</f>
         <v>98.191578916593926</v>
       </c>
